--- a/src/Section Properties ITERATION003B.xlsx
+++ b/src/Section Properties ITERATION003B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A974V276\Documents\GitHub\structures-calc\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMAC_PC\Documents\GitHub\structures-calc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D022ED3-B960-4033-8653-FF68C8B61C07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18C7B29-4898-4A07-8B67-79802BF7E0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="588" yWindow="720" windowWidth="30720" windowHeight="12828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cross Section Properties" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="85">
   <si>
     <t>Name of element</t>
   </si>
@@ -863,43 +863,43 @@
   <dimension ref="A1:BB25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.7109375" customWidth="1"/>
-    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.6640625" customWidth="1"/>
+    <col min="30" max="30" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="25" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1076,23 +1076,23 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K15" si="0">D2-$AH$3</f>
-        <v>0.48062239701143578</v>
+        <v>0.60189161372878386</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L15" si="1">E2-$AI$3</f>
-        <v>-0.37996524650672869</v>
+        <v>-0.40071535286177484</v>
       </c>
       <c r="M2">
         <f>C2*K2^2</f>
-        <v>5.414013011930114E-2</v>
+        <v>8.4907855002431143E-2</v>
       </c>
       <c r="N2">
         <f>C2*L2^2</f>
-        <v>3.3837559817090412E-2</v>
+        <v>3.7634248598235165E-2</v>
       </c>
       <c r="O2">
         <f>C2*K2*L2</f>
-        <v>-4.280151739619649E-2</v>
+        <v>-5.6528252432782665E-2</v>
       </c>
       <c r="P2">
         <v>255</v>
@@ -1115,23 +1115,23 @@
       </c>
       <c r="U2">
         <f t="shared" ref="U2:U15" si="3">D2-$AH$5</f>
-        <v>0.16832116563439395</v>
+        <v>0.69121425153096783</v>
       </c>
       <c r="V2">
         <f t="shared" ref="V2:V15" si="4">E2-$AI$5</f>
-        <v>-0.53473765402891438</v>
+        <v>-0.60697695756025682</v>
       </c>
       <c r="W2">
         <f>C2*U2^2</f>
-        <v>6.6403159688721292E-3</v>
+        <v>0.11197901754363658</v>
       </c>
       <c r="X2">
         <f>C2*V2^2</f>
-        <v>6.701820905539381E-2</v>
+        <v>8.6348678205259183E-2</v>
       </c>
       <c r="Y2">
         <f>C2*U2*V2</f>
-        <v>-2.1095546539394095E-2</v>
+        <v>-9.8332294550755539E-2</v>
       </c>
       <c r="Z2">
         <v>1.47</v>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="AT2">
         <f>-AI3</f>
-        <v>1.4950347534932713</v>
+        <v>1.4742846471382252</v>
       </c>
       <c r="AU2" t="s">
         <v>62</v>
@@ -1206,18 +1206,18 @@
       </c>
       <c r="AZ2">
         <f>(Q2)*(H2+X2)</f>
-        <v>4.3563742553000211E-2</v>
+        <v>4.6028377369608041E-2</v>
       </c>
       <c r="BA2">
         <f>(Q2)*(I2+W2)</f>
-        <v>8.563677640585402E-4</v>
+        <v>1.4287052214841008E-2</v>
       </c>
       <c r="BB2">
         <f>(Q2)*(J2+Y2)</f>
-        <v>-2.6896821837727471E-3</v>
+        <v>-1.2537367555221331E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1258,23 +1258,23 @@
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>-0.55062760298856417</v>
+        <v>-0.42935838627121614</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>-0.37996524650672869</v>
+        <v>-0.40071535286177484</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M15" si="7">C3*K3^2</f>
-        <v>7.3543535635061649E-2</v>
+        <v>4.4716566278747774E-2</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N15" si="8">C3*L3^2</f>
-        <v>3.5020012659710664E-2</v>
+        <v>3.8949376653432108E-2</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O15" si="9">C3*K3*L3</f>
-        <v>5.074934037975018E-2</v>
+        <v>4.1733468375383179E-2</v>
       </c>
       <c r="P3">
         <v>255</v>
@@ -1297,23 +1297,23 @@
       </c>
       <c r="U3">
         <f t="shared" si="3"/>
-        <v>-0.86292883436560608</v>
+        <v>-0.34003574846903217</v>
       </c>
       <c r="V3">
         <f t="shared" si="4"/>
-        <v>-0.53473765402891438</v>
+        <v>-0.60697695756025682</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W15" si="13">C3*U3^2</f>
-        <v>0.18062526998970863</v>
+        <v>2.8046437363314421E-2</v>
       </c>
       <c r="X3">
         <f t="shared" ref="X3:X15" si="14">C3*V3^2</f>
-        <v>6.9360159013760608E-2</v>
+        <v>8.9366131016638928E-2</v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y15" si="15">C3*U3*V3</f>
-        <v>0.11192943066231344</v>
+        <v>5.0063975031552514E-2</v>
       </c>
       <c r="Z3">
         <v>1.47</v>
@@ -1339,27 +1339,27 @@
       </c>
       <c r="AH3">
         <f>F16/C16</f>
-        <v>-0.44937239701143578</v>
+        <v>-0.57064161372878386</v>
       </c>
       <c r="AI3">
         <f>G16/C16</f>
-        <v>-1.4950347534932713</v>
+        <v>-1.4742846471382252</v>
       </c>
       <c r="AJ3">
         <f>H16+N16</f>
-        <v>1.1282931044728366</v>
+        <v>1.1412003881815092</v>
       </c>
       <c r="AK3">
         <f>I16+M16</f>
-        <v>0.59070101879799886</v>
+        <v>0.49632542495840259</v>
       </c>
       <c r="AL3">
         <f>J16+O16</f>
-        <v>-7.291102194174956E-2</v>
+        <v>-0.21373601610772117</v>
       </c>
       <c r="AM3">
         <f>(AJ3*AK3)-AL3^2</f>
-        <v>0.66116786919427128</v>
+        <v>0.52072368304528149</v>
       </c>
       <c r="AO3" t="s">
         <v>62</v>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="AT3">
         <f>-1.875-AI3</f>
-        <v>-0.37996524650672869</v>
+        <v>-0.40071535286177484</v>
       </c>
       <c r="AU3" t="s">
         <v>62</v>
@@ -1394,18 +1394,18 @@
       </c>
       <c r="AZ3">
         <f t="shared" ref="AZ3:AZ15" si="17">(Q3)*(H3+X3)</f>
-        <v>1.1430074868207494E-2</v>
+        <v>1.3980836298574481E-2</v>
       </c>
       <c r="BA3">
         <f t="shared" ref="BA3:BA15" si="18">(Q3)*(I3+W3)</f>
-        <v>5.9273046679217317E-2</v>
+        <v>3.9819245519352058E-2</v>
       </c>
       <c r="BB3">
         <f t="shared" ref="BB3:BB15" si="19">(Q3)*(J3+Y3)</f>
-        <v>4.6088004491837828E-3</v>
+        <v>-3.2790451437382348E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1445,23 +1445,23 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>-0.30062760298856422</v>
+        <v>-0.17935838627121614</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>1.4325347534932713</v>
+        <v>1.4117846471382252</v>
       </c>
       <c r="M4">
         <f t="shared" si="7"/>
-        <v>1.6945679189746835E-2</v>
+        <v>6.0317682610902708E-3</v>
       </c>
       <c r="N4">
         <f t="shared" si="8"/>
-        <v>0.38477921624363015</v>
+        <v>0.37371297935535053</v>
       </c>
       <c r="O4">
         <f t="shared" si="9"/>
-        <v>-8.0748654213842988E-2</v>
+        <v>-4.7477890513723191E-2</v>
       </c>
       <c r="P4">
         <v>155</v>
@@ -1484,23 +1484,23 @@
       </c>
       <c r="U4">
         <f t="shared" si="3"/>
-        <v>-0.61292883436560608</v>
+        <v>-9.0035748469032173E-2</v>
       </c>
       <c r="V4">
         <f t="shared" si="4"/>
-        <v>1.2777623459710856</v>
+        <v>1.2055230424397432</v>
       </c>
       <c r="W4">
         <f t="shared" si="13"/>
-        <v>7.0440329249396361E-2</v>
+        <v>1.5199567504460307E-3</v>
       </c>
       <c r="X4">
         <f t="shared" si="14"/>
-        <v>0.30612686489653729</v>
+        <v>0.27249108859747029</v>
       </c>
       <c r="Y4">
         <f t="shared" si="15"/>
-        <v>-0.14684575974605996</v>
+        <v>-2.0351281766761334E-2</v>
       </c>
       <c r="Z4">
         <v>0.63</v>
@@ -1575,18 +1575,18 @@
       </c>
       <c r="AZ4">
         <f t="shared" si="17"/>
-        <v>2.3743752927919141E-2</v>
+        <v>2.1136980264741447E-2</v>
       </c>
       <c r="BA4">
         <f t="shared" si="18"/>
-        <v>7.2755317668282181E-3</v>
+        <v>1.9342028981595674E-3</v>
       </c>
       <c r="BB4">
         <f t="shared" si="19"/>
-        <v>-1.1380546380319647E-2</v>
+        <v>-1.5772243369240034E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1626,23 +1626,23 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>0.19937239701143578</v>
+        <v>0.32064161372878386</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>-2.1924652465067287</v>
+        <v>-2.2132153528617748</v>
       </c>
       <c r="M5">
         <f t="shared" si="7"/>
-        <v>2.4843345431303479E-3</v>
+        <v>6.4256902784124142E-3</v>
       </c>
       <c r="N5">
         <f t="shared" si="8"/>
-        <v>0.30043149107123818</v>
+        <v>0.30614513738394189</v>
       </c>
       <c r="O5">
         <f t="shared" si="9"/>
-        <v>-2.7319815722519684E-2</v>
+        <v>-4.4353058891932452E-2</v>
       </c>
       <c r="P5">
         <v>155</v>
@@ -1665,23 +1665,23 @@
       </c>
       <c r="U5">
         <f t="shared" si="3"/>
-        <v>-0.11292883436560605</v>
+        <v>0.40996425153096783</v>
       </c>
       <c r="V5">
         <f t="shared" si="4"/>
-        <v>-2.3472376540289144</v>
+        <v>-2.4194769575602568</v>
       </c>
       <c r="W5">
         <f t="shared" si="13"/>
-        <v>7.970576019484054E-4</v>
+        <v>1.0504417970834167E-2</v>
       </c>
       <c r="X5">
         <f t="shared" si="14"/>
-        <v>0.34434528778069762</v>
+        <v>0.36586679676031481</v>
       </c>
       <c r="Y5">
         <f t="shared" si="15"/>
-        <v>1.6566925765534063E-2</v>
+        <v>-6.1993691250163366E-2</v>
       </c>
       <c r="Z5">
         <v>0.63</v>
@@ -1707,27 +1707,27 @@
       </c>
       <c r="AH5">
         <f>S16/R16</f>
-        <v>-0.13707116563439395</v>
+        <v>-0.65996425153096783</v>
       </c>
       <c r="AI5">
         <f>T16/R16</f>
-        <v>-1.3402623459710856</v>
+        <v>-1.2680230424397432</v>
       </c>
       <c r="AJ5">
         <f>AZ16</f>
-        <v>0.14177903026328983</v>
+        <v>0.14610649981558724</v>
       </c>
       <c r="AK5">
         <f>BA16</f>
-        <v>0.12241141822611401</v>
+        <v>8.0330830393678068E-2</v>
       </c>
       <c r="AL5">
         <f>BB16</f>
-        <v>3.6436882706596875E-2</v>
+        <v>-3.4400672398970766E-2</v>
       </c>
       <c r="AM5">
         <f>(AJ5*AK5)-AL5^2</f>
-        <v>1.6027725747878148E-2</v>
+        <v>1.0553450194598586E-2</v>
       </c>
       <c r="AO5" t="s">
         <v>62</v>
@@ -1758,18 +1758,18 @@
       </c>
       <c r="AZ5">
         <f t="shared" si="17"/>
-        <v>2.6693066769149898E-2</v>
+        <v>2.8360983715070228E-2</v>
       </c>
       <c r="BA5">
         <f t="shared" si="18"/>
-        <v>1.6268342248433474E-4</v>
+        <v>9.1500385107298125E-4</v>
       </c>
       <c r="BB5">
         <f t="shared" si="19"/>
-        <v>1.2839367468288898E-3</v>
+        <v>-4.8045110718876608E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1784,16 +1784,16 @@
         <f>(1/16)+(1/8)/2</f>
         <v>0.125</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
+      <c r="E6">
+        <v>-6.25E-2</v>
       </c>
       <c r="F6">
         <f t="shared" si="5"/>
         <v>1.953125E-3</v>
       </c>
-      <c r="G6" t="e">
+      <c r="G6">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>-9.765625E-4</v>
       </c>
       <c r="H6">
         <f>((1/8)^4)/12</f>
@@ -1808,23 +1808,23 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0.57437239701143583</v>
-      </c>
-      <c r="L6" t="e">
+        <v>0.69564161372878386</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1.4117846471382252</v>
       </c>
       <c r="M6">
         <f t="shared" si="7"/>
-        <v>5.1547445382603505E-3</v>
-      </c>
-      <c r="N6" t="e">
+        <v>7.5612071054872894E-3</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O6" t="e">
+        <v>3.1142748279612546E-2</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+        <v>1.5345252346449323E-2</v>
       </c>
       <c r="P6">
         <v>1130</v>
@@ -1841,29 +1841,29 @@
         <f t="shared" si="11"/>
         <v>1.1035156249999999E-3</v>
       </c>
-      <c r="T6" t="e">
+      <c r="T6">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
+        <v>-5.5175781249999995E-4</v>
       </c>
       <c r="U6">
         <f t="shared" si="3"/>
-        <v>0.26207116563439392</v>
-      </c>
-      <c r="V6" t="e">
+        <v>0.78496425153096783</v>
+      </c>
+      <c r="V6">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
+        <v>1.2055230424397432</v>
       </c>
       <c r="W6">
         <f t="shared" si="13"/>
-        <v>1.0731452477651551E-3</v>
-      </c>
-      <c r="X6" t="e">
+        <v>9.6276386903370714E-3</v>
+      </c>
+      <c r="X6">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y6" t="e">
+        <v>2.2707590716455856E-2</v>
+      </c>
+      <c r="Y6">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>1.4785820198625753E-2</v>
       </c>
       <c r="Z6">
         <v>7.8</v>
@@ -1917,20 +1917,20 @@
       <c r="AW6" t="s">
         <v>62</v>
       </c>
-      <c r="AZ6" t="e">
+      <c r="AZ6">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v>1.2841283709224641E-2</v>
       </c>
       <c r="BA6">
         <f t="shared" si="18"/>
-        <v>6.1782201941439584E-4</v>
-      </c>
-      <c r="BB6" t="e">
+        <v>5.4511108144675285E-3</v>
+      </c>
+      <c r="BB6">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
+        <v>8.3539884122235501E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>0.57437239701143583</v>
+        <v>0.69564161372878386</v>
       </c>
       <c r="L7" t="e">
         <f t="shared" si="1"/>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="7"/>
-        <v>5.1547445382603505E-3</v>
+        <v>7.5612071054872894E-3</v>
       </c>
       <c r="N7" t="e">
         <f t="shared" si="8"/>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="U7">
         <f t="shared" si="3"/>
-        <v>0.26207116563439392</v>
+        <v>0.78496425153096783</v>
       </c>
       <c r="V7" t="e">
         <f t="shared" si="4"/>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="W7">
         <f t="shared" si="13"/>
-        <v>1.0731452477651551E-3</v>
+        <v>9.6276386903370714E-3</v>
       </c>
       <c r="X7" t="e">
         <f t="shared" si="14"/>
@@ -2084,14 +2084,14 @@
       </c>
       <c r="BA7">
         <f t="shared" si="18"/>
-        <v>6.1782201941439584E-4</v>
+        <v>5.4511108144675285E-3</v>
       </c>
       <c r="BB7" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>0.57437239701143583</v>
+        <v>0.69564161372878386</v>
       </c>
       <c r="L8" t="e">
         <f t="shared" si="1"/>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="M8">
         <f t="shared" si="7"/>
-        <v>5.1547445382603505E-3</v>
+        <v>7.5612071054872894E-3</v>
       </c>
       <c r="N8" t="e">
         <f t="shared" si="8"/>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="U8">
         <f t="shared" si="3"/>
-        <v>0.26207116563439392</v>
+        <v>0.78496425153096783</v>
       </c>
       <c r="V8" t="e">
         <f t="shared" si="4"/>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="W8">
         <f t="shared" si="13"/>
-        <v>1.0731452477651551E-3</v>
+        <v>9.6276386903370714E-3</v>
       </c>
       <c r="X8" t="e">
         <f t="shared" si="14"/>
@@ -2250,14 +2250,14 @@
       </c>
       <c r="BA8">
         <f t="shared" si="18"/>
-        <v>6.1782201941439584E-4</v>
+        <v>5.4511108144675285E-3</v>
       </c>
       <c r="BB8" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>0.57437239701143583</v>
+        <v>0.69564161372878386</v>
       </c>
       <c r="L9" t="e">
         <f t="shared" si="1"/>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
-        <v>5.1547445382603505E-3</v>
+        <v>7.5612071054872894E-3</v>
       </c>
       <c r="N9" t="e">
         <f t="shared" si="8"/>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="U9">
         <f t="shared" si="3"/>
-        <v>0.26207116563439392</v>
+        <v>0.78496425153096783</v>
       </c>
       <c r="V9" t="e">
         <f t="shared" si="4"/>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="W9">
         <f t="shared" si="13"/>
-        <v>1.0731452477651551E-3</v>
+        <v>9.6276386903370714E-3</v>
       </c>
       <c r="X9" t="e">
         <f t="shared" si="14"/>
@@ -2420,14 +2420,14 @@
       </c>
       <c r="BA9">
         <f t="shared" si="18"/>
-        <v>6.1782201941439584E-4</v>
+        <v>5.4511108144675285E-3</v>
       </c>
       <c r="BB9" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>0.57437239701143583</v>
+        <v>0.69564161372878386</v>
       </c>
       <c r="L10" t="e">
         <f t="shared" si="1"/>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="M10">
         <f t="shared" si="7"/>
-        <v>5.1547445382603505E-3</v>
+        <v>7.5612071054872894E-3</v>
       </c>
       <c r="N10" t="e">
         <f t="shared" si="8"/>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="U10">
         <f t="shared" si="3"/>
-        <v>0.26207116563439392</v>
+        <v>0.78496425153096783</v>
       </c>
       <c r="V10" t="e">
         <f t="shared" si="4"/>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="W10">
         <f t="shared" si="13"/>
-        <v>1.0731452477651551E-3</v>
+        <v>9.6276386903370714E-3</v>
       </c>
       <c r="X10" t="e">
         <f t="shared" si="14"/>
@@ -2592,14 +2592,14 @@
       </c>
       <c r="BA10">
         <f t="shared" si="18"/>
-        <v>6.1782201941439584E-4</v>
+        <v>5.4511108144675285E-3</v>
       </c>
       <c r="BB10" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2610,20 +2610,21 @@
         <f t="shared" si="20"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="D11" s="5">
-        <v>1.625</v>
-      </c>
-      <c r="E11" s="5">
-        <f>0.5*(1/8)</f>
-        <v>6.25E-2</v>
+      <c r="D11">
+        <f>-1.6046754518</f>
+        <v>-1.6046754517999999</v>
+      </c>
+      <c r="E11">
+        <f>-0.092597515</f>
+        <v>-9.2597515000000005E-2</v>
       </c>
       <c r="F11">
         <f t="shared" si="5"/>
-        <v>2.5390625E-2</v>
+        <v>-2.5073053934374999E-2</v>
       </c>
       <c r="G11">
         <f t="shared" si="6"/>
-        <v>9.765625E-4</v>
+        <v>-1.4468361718750001E-3</v>
       </c>
       <c r="H11">
         <f t="shared" si="22"/>
@@ -2638,23 +2639,23 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>2.0743723970114356</v>
+        <v>-1.034033838071216</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>1.5575347534932713</v>
+        <v>1.3816871321382251</v>
       </c>
       <c r="M11">
         <f>C11*K11^2</f>
-        <v>6.7234700648171386E-2</v>
+        <v>1.6706655910567025E-2</v>
       </c>
       <c r="N11">
         <f t="shared" si="8"/>
-        <v>3.7904914192802272E-2</v>
+        <v>2.982905204869302E-2</v>
       </c>
       <c r="O11">
         <f t="shared" si="9"/>
-        <v>5.0482923438007074E-2</v>
+        <v>-2.2323613254039067E-2</v>
       </c>
       <c r="P11">
         <v>1130</v>
@@ -2669,31 +2670,31 @@
       </c>
       <c r="S11">
         <f t="shared" si="11"/>
-        <v>1.4345703124999998E-2</v>
+        <v>-1.4166275472921873E-2</v>
       </c>
       <c r="T11">
         <f t="shared" si="12"/>
-        <v>5.5175781249999995E-4</v>
+        <v>-8.1746243710937498E-4</v>
       </c>
       <c r="U11">
         <f t="shared" si="3"/>
-        <v>1.7620711656343939</v>
+        <v>-0.9447112002690321</v>
       </c>
       <c r="V11">
         <f t="shared" si="4"/>
-        <v>1.4027623459710856</v>
+        <v>1.1754255274397432</v>
       </c>
       <c r="W11">
         <f t="shared" si="13"/>
-        <v>4.8513981136877368E-2</v>
+        <v>1.3944988311152427E-2</v>
       </c>
       <c r="X11">
         <f t="shared" si="14"/>
-        <v>3.0745971863660994E-2</v>
+        <v>2.15878932899531E-2</v>
       </c>
       <c r="Y11">
         <f t="shared" si="15"/>
-        <v>3.8621360657395437E-2</v>
+        <v>-1.7350588450850937E-2</v>
       </c>
       <c r="Z11">
         <v>7.8</v>
@@ -2758,18 +2759,18 @@
       </c>
       <c r="AZ11">
         <f t="shared" si="17"/>
-        <v>1.7382969057395541E-2</v>
+        <v>1.2208654663250582E-2</v>
       </c>
       <c r="BA11">
         <f t="shared" si="18"/>
-        <v>2.7421894296762794E-2</v>
+        <v>7.8904133502282047E-3</v>
       </c>
       <c r="BB11">
         <f t="shared" si="19"/>
-        <v>2.182106877142842E-2</v>
+        <v>-9.8030824747307784E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2780,19 +2781,21 @@
         <f t="shared" si="20"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="D12" s="5">
-        <v>1.625</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.125</v>
+      <c r="D12">
+        <f>-1.7254548192</f>
+        <v>-1.7254548192000001</v>
+      </c>
+      <c r="E12">
+        <f>-0.1248053464</f>
+        <v>-0.1248053464</v>
       </c>
       <c r="F12">
         <f t="shared" si="5"/>
-        <v>2.5390625E-2</v>
+        <v>-2.6960231550000002E-2</v>
       </c>
       <c r="G12">
         <f t="shared" si="6"/>
-        <v>1.953125E-3</v>
+        <v>-1.9500835375E-3</v>
       </c>
       <c r="H12">
         <f t="shared" si="22"/>
@@ -2807,23 +2810,23 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>2.0743723970114356</v>
+        <v>-1.1548132054712164</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>1.6200347534932713</v>
+        <v>1.3494793007382251</v>
       </c>
       <c r="M12">
         <f t="shared" si="7"/>
-        <v>6.7234700648171386E-2</v>
+        <v>2.0837399055167277E-2</v>
       </c>
       <c r="N12">
         <f t="shared" si="8"/>
-        <v>4.1008009414468818E-2</v>
+        <v>2.8454599736264515E-2</v>
       </c>
       <c r="O12">
         <f t="shared" si="9"/>
-        <v>5.2508677731963556E-2</v>
+        <v>-2.4349945578165083E-2</v>
       </c>
       <c r="P12">
         <v>1130</v>
@@ -2838,31 +2841,31 @@
       </c>
       <c r="S12">
         <f t="shared" si="11"/>
-        <v>1.4345703124999998E-2</v>
+        <v>-1.5232530825749999E-2</v>
       </c>
       <c r="T12">
         <f t="shared" si="12"/>
-        <v>1.1035156249999999E-3</v>
+        <v>-1.1017971986874999E-3</v>
       </c>
       <c r="U12">
         <f t="shared" si="3"/>
-        <v>1.7620711656343939</v>
+        <v>-1.0654905676690323</v>
       </c>
       <c r="V12">
         <f t="shared" si="4"/>
-        <v>1.4652623459710856</v>
+        <v>1.1432176960397431</v>
       </c>
       <c r="W12">
         <f t="shared" si="13"/>
-        <v>4.8513981136877368E-2</v>
+        <v>1.7738596090494947E-2</v>
       </c>
       <c r="X12">
         <f t="shared" si="14"/>
-        <v>3.3546777226885774E-2</v>
+        <v>2.042104219591279E-2</v>
       </c>
       <c r="Y12">
         <f t="shared" si="15"/>
-        <v>4.034213328008527E-2</v>
+        <v>-1.9032619873791703E-2</v>
       </c>
       <c r="Z12">
         <v>7.8</v>
@@ -2929,18 +2932,18 @@
       </c>
       <c r="AZ12">
         <f t="shared" si="17"/>
-        <v>1.8965424087617547E-2</v>
+        <v>1.1549383795117808E-2</v>
       </c>
       <c r="BA12">
         <f t="shared" si="18"/>
-        <v>2.7421894296762794E-2</v>
+        <v>1.0033801745556728E-2</v>
       </c>
       <c r="BB12">
         <f t="shared" si="19"/>
-        <v>2.2793305303248176E-2</v>
+        <v>-1.0753430228692311E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -3097,7 +3100,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3254,7 +3257,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -3411,84 +3414,84 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="2">
-        <f>SUM(C2:C5,C11:C12)</f>
-        <v>0.75819022962906291</v>
+        <f>SUM(C2:C6,C11:C12)</f>
+        <v>0.77381522962906291</v>
       </c>
       <c r="F16" s="2">
-        <f>SUM(F2:F5,F11:F12)</f>
-        <v>-0.34070976087906291</v>
+        <f>SUM(F2:F6,F11:F12)</f>
+        <v>-0.44157117136343788</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" ref="G16:J16" si="23">SUM(G2:G5,G11:G12)</f>
-        <v>-1.1335207430544929</v>
+        <f t="shared" ref="G16:J16" si="23">SUM(G2:G6,G11:G12)</f>
+        <v>-1.1408239127638677</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="23"/>
-        <v>0.29531190107389615</v>
+        <v>0.29533224612597947</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="23"/>
-        <v>0.30911793801441612</v>
+        <v>0.30913828306649943</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="23"/>
         <v>-7.5781976158911218E-2</v>
       </c>
       <c r="M16" s="2">
-        <f>SUM(M2:M5,M11:M12)</f>
-        <v>0.28158308078358274</v>
+        <f>SUM(M2:M6,M11:M12)</f>
+        <v>0.18718714189190319</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" ref="N16:O16" si="24">SUM(N2:N5,N11:N12)</f>
-        <v>0.83298120339894044</v>
+        <f t="shared" ref="N16:O16" si="24">SUM(N2:N6,N11:N12)</f>
+        <v>0.84586814205552974</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="24"/>
-        <v>2.8709542171616517E-3</v>
+        <v>-0.13795403994880995</v>
       </c>
       <c r="R16" s="2">
-        <f>SUM(R2:R5,R11:R12)</f>
-        <v>9.7841129277705496E-2</v>
+        <f>SUM(R2:R6,R11:R12)</f>
+        <v>0.10666925427770549</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" ref="S16:T16" si="25">SUM(S2:S5,S11:S12)</f>
-        <v>-1.341119763708052E-2</v>
+        <f t="shared" ref="S16:T16" si="25">SUM(S2:S6,S11:S12)</f>
+        <v>-7.0397894560752391E-2</v>
       </c>
       <c r="T16" s="2">
         <f t="shared" si="25"/>
-        <v>-0.13113278145819784</v>
+        <v>-0.1352590723439947</v>
       </c>
       <c r="W16" s="2">
-        <f>SUM(W2:W5,W11:W12)</f>
-        <v>0.35553093508368033</v>
+        <f>SUM(W2:W6,W11:W12)</f>
+        <v>0.19336105272021564</v>
       </c>
       <c r="X16" s="2">
-        <f t="shared" ref="X16:Y16" si="26">SUM(X2:X5,X11:X12)</f>
-        <v>0.85114326983693622</v>
+        <f t="shared" ref="X16:Y16" si="26">SUM(X2:X6,X11:X12)</f>
+        <v>0.87878922078200505</v>
       </c>
       <c r="Y16" s="2">
         <f t="shared" si="26"/>
-        <v>3.9518544079874159E-2</v>
+        <v>-0.15221068066214463</v>
       </c>
       <c r="AZ16" s="2">
-        <f>SUM(AZ2:AZ5,AZ11:AZ12)</f>
-        <v>0.14177903026328983</v>
+        <f>SUM(AZ2:AZ6,AZ11:AZ12)</f>
+        <v>0.14610649981558724</v>
       </c>
       <c r="BA16" s="2">
-        <f t="shared" ref="BA16:BB16" si="27">SUM(BA2:BA5,BA11:BA12)</f>
-        <v>0.12241141822611401</v>
+        <f t="shared" ref="BA16:BB16" si="27">SUM(BA2:BA6,BA11:BA12)</f>
+        <v>8.0330830393678068E-2</v>
       </c>
       <c r="BB16" s="2">
         <f t="shared" si="27"/>
-        <v>3.6436882706596875E-2</v>
+        <v>-3.4400672398970766E-2</v>
       </c>
     </row>
-    <row r="21" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q21" s="1"/>
       <c r="R21" s="4" t="s">
         <v>54</v>
@@ -3496,13 +3499,13 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
     </row>
-    <row r="22" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q22" s="2"/>
       <c r="R22" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q23" s="6" t="s">
         <v>36</v>
       </c>
@@ -3512,7 +3515,7 @@
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
     </row>
-    <row r="24" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
@@ -3520,7 +3523,7 @@
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
     </row>
-    <row r="25" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
